--- a/biology/Botanique/Radermachera/Radermachera.xlsx
+++ b/biology/Botanique/Radermachera/Radermachera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Radermachera est un genre de plantes de la famille des Bignoniacées, originaire du Sud-Est de l'Asie. Ce genre comprend une quinzaine d'espèces.
 Le nom du genre est dédié à Jacob Cornelis Matthieu Radermacher, naturaliste néerlandais du XVIIIe siècle qui recensa une grande partie de la flore de Java et Sumatra.
@@ -512,7 +524,9 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Radermachera sont des arbres à feuillage persistant, de taille variable selon les espèces, de 5 à 40 mètres de haut.
 Les feuilles sont composées bi- ou tripennées.
@@ -545,7 +559,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Radermachera frondosa Chun &amp; How
 Radermachera eberhardtii Dop
@@ -588,7 +604,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Radermachera sinica est devenue une plante d'appartement, appréciée pour son feuillage décoratif.
 Sur les autres projets Wikimedia :
